--- a/static/download/2020/RP3_ERT_SU_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_ERT_SU_2020_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Data source</t>
   </si>
@@ -74,7 +74,7 @@
     <t>act./det.(%)</t>
   </si>
   <si>
-    <t>SES Area</t>
+    <t>SES Area (RP3)</t>
   </si>
   <si>
     <t>Austria</t>
@@ -164,9 +164,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>Change date</t>
   </si>
   <si>
@@ -177,6 +174,12 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK removed from RP3 area</t>
   </si>
 </sst>
 </file>
@@ -632,36 +635,36 @@
         <v>20</v>
       </c>
       <c r="B6" s="23">
-        <f>sum(B7:B36)</f>
-        <v>137800234.7</v>
+        <f>sum(B7:B35)</f>
+        <v>125206335.9</v>
       </c>
       <c r="C6" s="23">
-        <f t="shared" ref="C6:C36" si="1">B6/C$4</f>
-        <v>377534.8896</v>
+        <f t="shared" ref="C6:C35" si="1">B6/C$4</f>
+        <v>343031.0572</v>
       </c>
       <c r="D6" s="23">
-        <f>sum(D7:D36)</f>
-        <v>57694089.76</v>
+        <f>sum(D7:D35)</f>
+        <v>52594910.59</v>
       </c>
       <c r="E6" s="23">
-        <f t="shared" ref="E6:E36" si="2">D6/E$4</f>
-        <v>157634.125</v>
+        <f t="shared" ref="E6:E35" si="2">D6/E$4</f>
+        <v>143701.9415</v>
       </c>
       <c r="F6" s="24">
-        <f t="shared" ref="F6:F36" si="3">E6/C6-1</f>
-        <v>-0.5824647486</v>
+        <f t="shared" ref="F6:F35" si="3">E6/C6-1</f>
+        <v>-0.5810818336</v>
       </c>
       <c r="G6" s="23">
-        <f>sum(G7:G36)</f>
-        <v>142375661.1</v>
+        <f>sum(G7:G35)</f>
+        <v>129727716.1</v>
       </c>
       <c r="H6" s="23">
-        <f t="shared" ref="H6:H36" si="4">G6/H$4</f>
-        <v>389004.5386</v>
+        <f t="shared" ref="H6:H35" si="4">G6/H$4</f>
+        <v>354447.3118</v>
       </c>
       <c r="I6" s="24">
-        <f t="shared" ref="I6:I36" si="5">D6/G6-1</f>
-        <v>-0.5947756147</v>
+        <f t="shared" ref="I6:I35" si="5">D6/G6-1</f>
+        <v>-0.5945746047</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -1648,40 +1651,6 @@
       <c r="I35" s="24">
         <f t="shared" si="5"/>
         <v>-0.6387998789</v>
-      </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="25">
-        <v>1.259389882E7</v>
-      </c>
-      <c r="C36" s="23">
-        <f t="shared" si="1"/>
-        <v>34503.83238</v>
-      </c>
-      <c r="D36" s="25">
-        <v>5099179.17</v>
-      </c>
-      <c r="E36" s="23">
-        <f t="shared" si="2"/>
-        <v>13932.18352</v>
-      </c>
-      <c r="F36" s="24">
-        <f t="shared" si="3"/>
-        <v>-0.5962134475</v>
-      </c>
-      <c r="G36" s="25">
-        <v>1.2647945E7</v>
-      </c>
-      <c r="H36" s="23">
-        <f t="shared" si="4"/>
-        <v>34557.22678</v>
-      </c>
-      <c r="I36" s="24">
-        <f t="shared" si="5"/>
-        <v>-0.5968373384</v>
       </c>
     </row>
   </sheetData>
@@ -1707,23 +1676,31 @@
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
       <c r="A1" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="C1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="26" t="s">
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="28">
+        <v>44351.0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="30">
+        <v>2020.0</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
       <c r="A3" s="28"/>
